--- a/EfficiencyStudy/results/MadgraphMLM/report_Mu8Leg2_systematics.xlsx
+++ b/EfficiencyStudy/results/MadgraphMLM/report_Mu8Leg2_systematics.xlsx
@@ -677,7 +677,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.001 (0.07%)</t>
+          <t>0.001 (0.06%)</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.001 (0.06%)</t>
+          <t>0.000 (0.05%)</t>
         </is>
       </c>
     </row>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.001 (0.14%)</t>
+          <t>0.001 (0.13%)</t>
         </is>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0.001 (0.14%)</t>
+          <t>0.001 (0.13%)</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.001 (0.12%)</t>
+          <t>0.001 (0.06%)</t>
         </is>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0.001 (0.05%)</t>
+          <t>0.000 (0.03%)</t>
         </is>
       </c>
     </row>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0.003 (0.27%)</t>
+          <t>0.002 (0.25%)</t>
         </is>
       </c>
     </row>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.001 (0.14%)</t>
+          <t>0.001 (0.13%)</t>
         </is>
       </c>
     </row>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.001 (0.11%)</t>
+          <t>0.001 (0.10%)</t>
         </is>
       </c>
     </row>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.008 (0.89%)</t>
+          <t>0.008 (0.87%)</t>
         </is>
       </c>
     </row>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.001 (0.10%)</t>
+          <t>0.001 (0.09%)</t>
         </is>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.002 (0.17%)</t>
+          <t>0.002 (0.16%)</t>
         </is>
       </c>
     </row>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.001 (0.05%)</t>
+          <t>0.000 (0.05%)</t>
         </is>
       </c>
     </row>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.002 (0.19%)</t>
+          <t>0.002 (0.18%)</t>
         </is>
       </c>
     </row>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.001 (0.09%)</t>
+          <t>0.001 (0.08%)</t>
         </is>
       </c>
     </row>
@@ -3873,7 +3873,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0.000 (0.05%)</t>
+          <t>0.000 (0.04%)</t>
         </is>
       </c>
     </row>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0.002 (0.26%)</t>
+          <t>0.002 (0.21%)</t>
         </is>
       </c>
     </row>
@@ -4053,7 +4053,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0.001 (0.13%)</t>
+          <t>0.001 (0.10%)</t>
         </is>
       </c>
     </row>
@@ -4173,7 +4173,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.001 (0.07%)</t>
+          <t>0.001 (0.06%)</t>
         </is>
       </c>
     </row>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.005 (0.57%)</t>
+          <t>0.004 (0.46%)</t>
         </is>
       </c>
     </row>
@@ -4514,22 +4514,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.954 (-0.073%)</t>
+          <t>0.954 (99.927%)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.955 (0.010%)</t>
+          <t>0.955 (100.010%)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.954 (-0.031%)</t>
+          <t>0.954 (-0.042%)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.955 (0.000%)</t>
+          <t>0.955 (100.000%)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4539,17 +4539,17 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.955 (0.010%)</t>
+          <t>0.955 (100.010%)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.955 (0.000%)</t>
+          <t>0.955 (-0.010%)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.001 (0.13%)</t>
+          <t>1.909 (199.97%)</t>
         </is>
       </c>
     </row>
@@ -4574,22 +4574,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.957 (0.000%)</t>
+          <t>0.957 (100.000%)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.957 (-0.010%)</t>
+          <t>0.957 (99.990%)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.957 (0.010%)</t>
+          <t>0.957 (0.021%)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.957 (0.000%)</t>
+          <t>0.957 (100.000%)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -4599,17 +4599,17 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.957 (0.010%)</t>
+          <t>0.957 (100.010%)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.957 (-0.010%)</t>
+          <t>0.957 (-0.021%)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.001 (0.07%)</t>
+          <t>1.914 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -4634,42 +4634,42 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>0.958 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.958 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.958 (0.010%)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.958 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.958 (0.010%)</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0.958 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>0.958 (0.000%)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.958 (0.000%)</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.958 (0.010%)</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0.958 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0.958 (0.010%)</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>0.958 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0.958 (0.000%)</t>
-        </is>
-      </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>1.916 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -4694,42 +4694,42 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>0.958 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.958 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>0.958 (0.000%)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.958 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>0.958 (0.000%)</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>0.958 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>0.958 (0.000%)</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0.958 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0.958 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>0.958 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0.958 (0.000%)</t>
-        </is>
-      </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.000 (0.03%)</t>
+          <t>1.916 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -4754,42 +4754,42 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>0.958 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.958 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>0.958 (0.000%)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0.958 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>0.958 (0.000%)</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>0.958 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>0.958 (0.000%)</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0.958 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0.958 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>0.958 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0.958 (0.000%)</t>
-        </is>
-      </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.000 (0.01%)</t>
+          <t>1.916 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -4814,42 +4814,42 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>0.957 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.957 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>0.957 (0.000%)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0.957 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>0.957 (0.000%)</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>0.957 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>0.957 (0.000%)</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0.957 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.957 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>0.957 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>0.957 (0.000%)</t>
-        </is>
-      </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.000 (0.01%)</t>
+          <t>1.913 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -4874,42 +4874,42 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.954 (-0.031%)</t>
+          <t>0.954 (99.969%)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>0.955 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>0.955 (0.000%)</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0.955 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0.955 (0.010%)</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>0.955 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>0.955 (0.000%)</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0.955 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.955 (0.010%)</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>0.955 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0.955 (0.000%)</t>
-        </is>
-      </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>1.909 (199.98%)</t>
         </is>
       </c>
     </row>
@@ -4934,22 +4934,22 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.949 (-0.053%)</t>
+          <t>0.949 (99.947%)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>0.949 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>0.949 (0.000%)</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.949 (0.000%)</t>
-        </is>
-      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.949 (0.000%)</t>
+          <t>0.949 (100.000%)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -4959,17 +4959,17 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0.949 (-0.021%)</t>
+          <t>0.949 (99.979%)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.949 (-0.053%)</t>
+          <t>0.949 (-0.032%)</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.002 (0.17%)</t>
+          <t>1.898 (199.96%)</t>
         </is>
       </c>
     </row>
@@ -4994,42 +4994,42 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>0.980 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.980 (99.990%)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.980 (0.010%)</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0.980 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>0.980 (0.000%)</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.980 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.980 (0.000%)</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0.980 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>0.980 (0.000%)</t>
-        </is>
-      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.980 (-0.010%)</t>
+          <t>0.980 (99.990%)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.980 (0.020%)</t>
+          <t>0.980 (0.031%)</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.001 (0.11%)</t>
+          <t>1.960 (199.99%)</t>
         </is>
       </c>
     </row>
@@ -5054,32 +5054,32 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.981 (-0.031%)</t>
+          <t>0.981 (99.969%)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.981 (-0.020%)</t>
+          <t>0.981 (99.980%)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.981 (-0.010%)</t>
+          <t>0.981 (0.010%)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>0.981 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>0.981 (0.000%)</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>0.981 (0.000%)</t>
-        </is>
-      </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0.981 (0.000%)</t>
+          <t>0.981 (100.000%)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -5089,7 +5089,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.001 (0.08%)</t>
+          <t>1.962 (199.97%)</t>
         </is>
       </c>
     </row>
@@ -5114,12 +5114,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.981 (0.000%)</t>
+          <t>0.981 (100.000%)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.981 (0.000%)</t>
+          <t>0.981 (100.000%)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -5129,7 +5129,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.981 (0.000%)</t>
+          <t>0.981 (100.000%)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -5139,17 +5139,17 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0.981 (-0.010%)</t>
+          <t>0.981 (99.990%)</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0.981 (0.000%)</t>
+          <t>0.981 (0.010%)</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.001 (0.06%)</t>
+          <t>1.962 (199.99%)</t>
         </is>
       </c>
     </row>
@@ -5174,42 +5174,42 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>0.982 (100.010%)</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.982 (100.010%)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.982 (-0.020%)</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0.982 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>0.982 (0.010%)</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.982 (0.010%)</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0.982 (100.010%)</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>0.982 (-0.010%)</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0.982 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>0.982 (0.010%)</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>0.982 (0.010%)</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>0.982 (0.000%)</t>
-        </is>
-      </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>1.964 (200.02%)</t>
         </is>
       </c>
     </row>
@@ -5234,42 +5234,42 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.982 (0.010%)</t>
+          <t>0.982 (100.010%)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>0.982 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>0.982 (0.000%)</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0.982 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>0.982 (0.000%)</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>0.982 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>0.982 (0.000%)</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>0.982 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>0.982 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>0.982 (0.000%)</t>
-        </is>
-      </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.000 (0.02%)</t>
+          <t>1.963 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -5294,42 +5294,42 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>0.981 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.981 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>0.981 (0.000%)</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0.981 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>0.981 (0.000%)</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>0.981 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>0.981 (0.000%)</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0.981 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>0.981 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>0.981 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>0.981 (0.000%)</t>
-        </is>
-      </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.000 (0.01%)</t>
+          <t>1.963 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -5354,22 +5354,22 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>0.980 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.980 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>0.980 (0.000%)</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0.980 (0.000%)</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.980 (0.000%)</t>
-        </is>
-      </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0.980 (0.000%)</t>
+          <t>0.980 (100.000%)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -5379,17 +5379,17 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0.980 (-0.010%)</t>
+          <t>0.980 (99.990%)</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0.980 (0.000%)</t>
+          <t>0.980 (0.010%)</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0.000 (0.03%)</t>
+          <t>1.961 (199.99%)</t>
         </is>
       </c>
     </row>
@@ -5414,42 +5414,42 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.975 (-0.051%)</t>
+          <t>0.975 (99.949%)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.975 (-0.072%)</t>
+          <t>0.975 (99.928%)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.976 (-0.010%)</t>
+          <t>0.976 (0.061%)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.976 (0.010%)</t>
+          <t>0.976 (100.010%)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0.976 (0.041%)</t>
+          <t>0.976 (0.031%)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0.976 (-0.041%)</t>
+          <t>0.976 (99.959%)</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0.976 (0.010%)</t>
+          <t>0.976 (0.051%)</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.002 (0.19%)</t>
+          <t>1.951 (199.92%)</t>
         </is>
       </c>
     </row>
@@ -5474,22 +5474,22 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.966 (0.072%)</t>
+          <t>0.966 (100.072%)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>0.966 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>0.966 (0.000%)</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.966 (0.000%)</t>
-        </is>
-      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0.966 (0.000%)</t>
+          <t>0.966 (100.000%)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -5499,7 +5499,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0.966 (0.000%)</t>
+          <t>0.966 (100.000%)</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -5509,7 +5509,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.001 (0.10%)</t>
+          <t>1.932 (200.04%)</t>
         </is>
       </c>
     </row>
@@ -5534,42 +5534,42 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>0.968 (100.041%)</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.968 (100.021%)</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.967 (-0.031%)</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>0.967 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>0.968 (0.041%)</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0.968 (0.021%)</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.967 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>0.967 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>0.968 (0.041%)</t>
-        </is>
-      </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0.968 (0.010%)</t>
+          <t>0.968 (100.010%)</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0.968 (0.010%)</t>
+          <t>0.968 (0.000%)</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.001 (0.08%)</t>
+          <t>1.935 (200.04%)</t>
         </is>
       </c>
     </row>
@@ -5594,42 +5594,42 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>0.968 (99.990%)</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.968 (100.010%)</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.968 (-0.021%)</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>0.968 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>0.968 (0.000%)</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>0.968 (100.010%)</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
           <t>0.968 (-0.010%)</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>0.968 (0.010%)</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.968 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>0.968 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>0.968 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>0.968 (0.010%)</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>0.968 (0.000%)</t>
-        </is>
-      </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.000 (0.05%)</t>
+          <t>1.937 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -5654,42 +5654,42 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.969 (0.010%)</t>
+          <t>0.969 (100.010%)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.969 (0.021%)</t>
+          <t>0.969 (100.021%)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
+          <t>0.969 (-0.021%)</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>0.969 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>0.969 (0.000%)</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>0.969 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>0.969 (0.000%)</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>0.969 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>0.969 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>0.969 (0.000%)</t>
-        </is>
-      </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>1.938 (200.02%)</t>
         </is>
       </c>
     </row>
@@ -5714,42 +5714,42 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>0.970 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.970 (100.010%)</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.970 (-0.010%)</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>0.970 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>0.970 (0.000%)</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0.970 (0.010%)</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>0.970 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>0.970 (0.000%)</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>0.970 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>0.970 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>0.970 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>0.970 (0.000%)</t>
-        </is>
-      </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.000 (0.01%)</t>
+          <t>1.940 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -5774,42 +5774,42 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>0.971 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.971 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>0.971 (0.000%)</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>0.971 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>0.971 (0.000%)</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>0.971 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>0.971 (0.000%)</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>0.971 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>0.971 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>0.971 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>0.971 (0.000%)</t>
-        </is>
-      </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.000 (0.01%)</t>
+          <t>1.941 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -5834,42 +5834,42 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
+          <t>0.971 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.971 (99.990%)</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>0.971 (0.000%)</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>0.971 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>0.971 (-0.010%)</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.971 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>0.971 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>0.971 (0.000%)</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>0.971 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>0.971 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>0.971 (0.000%)</t>
-        </is>
-      </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0.000 (0.03%)</t>
+          <t>1.942 (199.99%)</t>
         </is>
       </c>
     </row>
@@ -5894,42 +5894,42 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.972 (-0.010%)</t>
+          <t>0.972 (99.990%)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.972 (-0.021%)</t>
+          <t>0.972 (99.979%)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
+          <t>0.973 (0.031%)</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>0.973 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>0.973 (0.010%)</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>0.973 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>0.973 (0.010%)</t>
-        </is>
-      </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>0.973 (0.010%)</t>
+          <t>0.973 (100.010%)</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0.972 (-0.021%)</t>
+          <t>0.972 (-0.031%)</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0.001 (0.12%)</t>
+          <t>1.945 (199.99%)</t>
         </is>
       </c>
     </row>
@@ -5954,22 +5954,22 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.924 (0.152%)</t>
+          <t>0.924 (100.152%)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.922 (-0.054%)</t>
+          <t>0.922 (99.946%)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.923 (0.022%)</t>
+          <t>0.923 (0.076%)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.923 (0.000%)</t>
+          <t>0.923 (100.000%)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -5979,17 +5979,17 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0.922 (-0.054%)</t>
+          <t>0.922 (99.946%)</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0.923 (-0.022%)</t>
+          <t>0.923 (0.033%)</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0.003 (0.29%)</t>
+          <t>1.846 (200.02%)</t>
         </is>
       </c>
     </row>
@@ -6014,42 +6014,42 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.929 (0.022%)</t>
+          <t>0.929 (100.022%)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>0.929 (100.032%)</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.928 (-0.108%)</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>0.928 (100.011%)</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>0.928 (-0.065%)</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>0.928 (99.989%)</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
           <t>0.929 (0.032%)</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.928 (-0.075%)</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>0.928 (0.011%)</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>0.928 (-0.054%)</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>0.928 (-0.011%)</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>0.929 (0.022%)</t>
-        </is>
-      </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0.002 (0.18%)</t>
+          <t>1.857 (200.03%)</t>
         </is>
       </c>
     </row>
@@ -6074,22 +6074,22 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.934 (0.032%)</t>
+          <t>0.934 (100.032%)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.934 (0.032%)</t>
+          <t>0.934 (100.032%)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.934 (-0.011%)</t>
+          <t>0.934 (-0.043%)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0.934 (0.000%)</t>
+          <t>0.934 (100.000%)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -6099,17 +6099,17 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0.934 (0.032%)</t>
+          <t>0.934 (100.032%)</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0.934 (0.000%)</t>
+          <t>0.934 (-0.032%)</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.001 (0.12%)</t>
+          <t>1.868 (200.05%)</t>
         </is>
       </c>
     </row>
@@ -6134,22 +6134,22 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.935 (-0.011%)</t>
+          <t>0.935 (99.989%)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.935 (-0.011%)</t>
+          <t>0.935 (99.989%)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.935 (0.011%)</t>
+          <t>0.935 (0.021%)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0.935 (0.000%)</t>
+          <t>0.935 (100.000%)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -6159,17 +6159,17 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>0.935 (0.032%)</t>
+          <t>0.935 (100.032%)</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0.935 (-0.021%)</t>
+          <t>0.935 (-0.053%)</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.001 (0.10%)</t>
+          <t>1.870 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -6194,42 +6194,42 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.935 (0.011%)</t>
+          <t>0.935 (100.011%)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>0.936 (100.021%)</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.935 (-0.021%)</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>0.935 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
           <t>0.936 (0.021%)</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.935 (0.000%)</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>0.935 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>0.936 (0.021%)</t>
-        </is>
-      </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>0.935 (0.011%)</t>
+          <t>0.935 (100.011%)</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>0.935 (-0.011%)</t>
+          <t>0.935 (-0.021%)</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.001 (0.06%)</t>
+          <t>1.871 (200.02%)</t>
         </is>
       </c>
     </row>
@@ -6254,42 +6254,42 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
+          <t>0.935 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.935 (99.989%)</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>0.935 (0.000%)</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>0.935 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>0.935 (-0.011%)</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>0.935 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>0.935 (-0.011%)</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>0.935 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>0.935 (-0.011%)</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>0.935 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>0.935 (-0.011%)</t>
-        </is>
-      </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>1.870 (199.99%)</t>
         </is>
       </c>
     </row>
@@ -6314,42 +6314,42 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.934 (0.000%)</t>
+          <t>0.934 (100.000%)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>0.934 (100.011%)</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.934 (-0.011%)</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>0.934 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>0.934 (0.011%)</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.934 (0.000%)</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>0.934 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>0.934 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>0.934 (0.011%)</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>0.934 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>0.934 (0.011%)</t>
-        </is>
-      </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0.001 (0.08%)</t>
+          <t>1.869 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -6374,32 +6374,32 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.932 (0.247%)</t>
+          <t>0.932 (100.247%)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.927 (-0.323%)</t>
+          <t>0.927 (99.677%)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.931 (0.075%)</t>
+          <t>0.931 (0.398%)</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.930 (0.043%)</t>
+          <t>0.930 (100.043%)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0.931 (0.129%)</t>
+          <t>0.931 (0.086%)</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>0.930 (0.000%)</t>
+          <t>0.930 (100.000%)</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.006 (0.65%)</t>
+          <t>1.860 (199.98%)</t>
         </is>
       </c>
     </row>
@@ -6605,7 +6605,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.001 (0.09%)</t>
+          <t>0.001 (0.08%)</t>
         </is>
       </c>
     </row>
@@ -6965,7 +6965,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.002 (0.19%)</t>
+          <t>0.002 (0.18%)</t>
         </is>
       </c>
     </row>
@@ -7325,7 +7325,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.000 (0.02%)</t>
+          <t>0.000 (0.01%)</t>
         </is>
       </c>
     </row>
@@ -7445,7 +7445,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.003 (0.27%)</t>
+          <t>0.003 (0.26%)</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.001 (0.09%)</t>
+          <t>0.001 (0.08%)</t>
         </is>
       </c>
     </row>
@@ -7625,7 +7625,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.001 (0.06%)</t>
+          <t>0.000 (0.05%)</t>
         </is>
       </c>
     </row>
@@ -7685,7 +7685,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.000 (0.05%)</t>
+          <t>0.000 (0.04%)</t>
         </is>
       </c>
     </row>
@@ -7985,7 +7985,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0.003 (0.34%)</t>
+          <t>0.003 (0.33%)</t>
         </is>
       </c>
     </row>
@@ -8045,7 +8045,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0.002 (0.22%)</t>
+          <t>0.002 (0.18%)</t>
         </is>
       </c>
     </row>
@@ -8105,7 +8105,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.002 (0.20%)</t>
+          <t>0.002 (0.18%)</t>
         </is>
       </c>
     </row>
@@ -8165,7 +8165,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.001 (0.11%)</t>
+          <t>0.001 (0.09%)</t>
         </is>
       </c>
     </row>
@@ -8345,7 +8345,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0.001 (0.10%)</t>
+          <t>0.001 (0.09%)</t>
         </is>
       </c>
     </row>
@@ -8506,42 +8506,42 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.957 (0.000%)</t>
+          <t>0.957 (100.000%)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.957 (0.042%)</t>
+          <t>0.957 (100.042%)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.957 (0.010%)</t>
+          <t>0.957 (-0.031%)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.957 (0.010%)</t>
+          <t>0.957 (100.010%)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.957 (0.042%)</t>
+          <t>0.957 (0.031%)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.957 (-0.021%)</t>
+          <t>0.957 (99.979%)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.957 (0.000%)</t>
+          <t>0.957 (0.021%)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.001 (0.13%)</t>
+          <t>1.914 (200.02%)</t>
         </is>
       </c>
     </row>
@@ -8566,42 +8566,42 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>0.962 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.962 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.962 (-0.010%)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.962 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>0.962 (0.000%)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.962 (0.000%)</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0.962 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>0.962 (-0.010%)</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0.962 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>0.962 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>0.962 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0.962 (-0.010%)</t>
-        </is>
-      </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.001 (0.06%)</t>
+          <t>1.924 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -8626,42 +8626,42 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>0.963 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.963 (100.010%)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>0.963 (0.000%)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.963 (0.010%)</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.963 (0.010%)</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>0.963 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>0.963 (0.000%)</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0.963 (0.000%)</t>
-        </is>
-      </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.963 (0.010%)</t>
+          <t>0.963 (100.010%)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.963 (-0.010%)</t>
+          <t>0.963 (-0.021%)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.000 (0.05%)</t>
+          <t>1.926 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -8686,42 +8686,42 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.963 (0.000%)</t>
+          <t>0.963 (100.000%)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>0.963 (99.990%)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.963 (0.010%)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.963 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.964 (0.010%)</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>0.963 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>0.963 (-0.010%)</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.963 (0.000%)</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0.963 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0.964 (0.010%)</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>0.963 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0.963 (-0.010%)</t>
-        </is>
-      </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.000 (0.03%)</t>
+          <t>1.927 (199.99%)</t>
         </is>
       </c>
     </row>
@@ -8746,42 +8746,42 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.963 (0.010%)</t>
+          <t>0.963 (100.010%)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.963 (0.010%)</t>
+          <t>0.963 (100.010%)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.963 (0.010%)</t>
+          <t>0.963 (0.000%)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>0.963 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>0.963 (0.000%)</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0.963 (0.000%)</t>
-        </is>
-      </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.963 (0.010%)</t>
+          <t>0.963 (100.010%)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.963 (0.000%)</t>
+          <t>0.963 (-0.010%)</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.000 (0.02%)</t>
+          <t>1.927 (200.02%)</t>
         </is>
       </c>
     </row>
@@ -8806,42 +8806,42 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>0.962 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.962 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>0.962 (0.000%)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0.962 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>0.962 (0.000%)</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.962 (0.000%)</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0.962 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.962 (0.000%)</t>
-        </is>
-      </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0.962 (0.010%)</t>
+          <t>0.962 (100.010%)</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0.962 (0.000%)</t>
+          <t>0.962 (-0.010%)</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.000 (0.01%)</t>
+          <t>1.924 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -8866,12 +8866,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.961 (0.021%)</t>
+          <t>0.961 (100.021%)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.961 (0.000%)</t>
+          <t>0.961 (100.000%)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -8881,7 +8881,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.961 (0.000%)</t>
+          <t>0.961 (100.000%)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -8891,17 +8891,17 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0.961 (-0.010%)</t>
+          <t>0.961 (99.990%)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0.961 (0.000%)</t>
+          <t>0.961 (0.010%)</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.000 (0.03%)</t>
+          <t>1.921 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -8926,42 +8926,42 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>0.956 (100.052%)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.956 (100.010%)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.955 (-0.042%)</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0.956 (100.010%)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0.956 (0.031%)</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>0.955 (99.969%)</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
           <t>0.956 (0.052%)</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.956 (0.010%)</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.955 (-0.031%)</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0.956 (0.010%)</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0.956 (0.042%)</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>0.955 (-0.031%)</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>0.956 (0.021%)</t>
-        </is>
-      </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.001 (0.15%)</t>
+          <t>1.911 (200.02%)</t>
         </is>
       </c>
     </row>
@@ -8986,32 +8986,32 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>0.985 (99.970%)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.985 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.986 (0.010%)</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0.986 (100.010%)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>0.985 (-0.030%)</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.985 (0.000%)</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.986 (0.010%)</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0.986 (0.010%)</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>0.985 (-0.020%)</t>
-        </is>
-      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.985 (0.000%)</t>
+          <t>0.985 (100.000%)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -9021,7 +9021,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.001 (0.10%)</t>
+          <t>1.971 (199.99%)</t>
         </is>
       </c>
     </row>
@@ -9046,42 +9046,42 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.986 (-0.051%)</t>
+          <t>0.986 (99.949%)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>0.986 (99.990%)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.987 (0.010%)</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0.987 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0.987 (0.020%)</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>0.987 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
           <t>0.986 (-0.010%)</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.987 (0.000%)</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0.987 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>0.987 (0.020%)</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>0.987 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>0.986 (-0.010%)</t>
-        </is>
-      </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.001 (0.08%)</t>
+          <t>1.973 (199.97%)</t>
         </is>
       </c>
     </row>
@@ -9106,42 +9106,42 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.987 (-0.020%)</t>
+          <t>0.987 (99.980%)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.987 (0.010%)</t>
+          <t>0.987 (100.010%)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.987 (0.010%)</t>
+          <t>0.987 (0.000%)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.987 (0.010%)</t>
+          <t>0.987 (100.010%)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>0.987 (-0.010%)</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>0.987 (100.010%)</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
           <t>0.987 (0.000%)</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>0.987 (0.010%)</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>0.987 (0.010%)</t>
-        </is>
-      </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.001 (0.05%)</t>
+          <t>1.975 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -9166,42 +9166,42 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>0.988 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.988 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>0.988 (0.000%)</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0.988 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0.988 (0.010%)</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0.988 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>0.988 (0.000%)</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.988 (0.000%)</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0.988 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>0.988 (0.010%)</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>0.988 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>0.988 (0.000%)</t>
-        </is>
-      </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.000 (0.03%)</t>
+          <t>1.976 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -9226,42 +9226,42 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>0.988 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.988 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>0.988 (0.000%)</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0.988 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>0.988 (0.000%)</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>0.988 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>0.988 (0.000%)</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0.988 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>0.988 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>0.988 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>0.988 (0.000%)</t>
-        </is>
-      </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.000 (0.01%)</t>
+          <t>1.976 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -9286,42 +9286,42 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>0.988 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.988 (100.010%)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>0.988 (0.000%)</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0.988 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>0.988 (0.010%)</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.988 (0.010%)</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0.988 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>0.988 (0.010%)</t>
-        </is>
-      </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>0.988 (0.010%)</t>
+          <t>0.988 (100.010%)</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0.988 (0.000%)</t>
+          <t>0.988 (-0.010%)</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.000 (0.02%)</t>
+          <t>1.976 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -9346,42 +9346,42 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>0.988 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.988 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>0.988 (0.000%)</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0.988 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>0.988 (0.000%)</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.988 (0.000%)</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0.988 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>0.988 (0.000%)</t>
-        </is>
-      </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0.988 (-0.010%)</t>
+          <t>0.988 (99.990%)</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0.988 (0.000%)</t>
+          <t>0.988 (0.010%)</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0.000 (0.02%)</t>
+          <t>1.976 (199.99%)</t>
         </is>
       </c>
     </row>
@@ -9406,42 +9406,42 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.989 (0.020%)</t>
+          <t>0.989 (100.020%)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.989 (0.010%)</t>
+          <t>0.989 (100.010%)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
+          <t>0.989 (-0.020%)</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0.989 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>0.989 (0.000%)</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>0.989 (99.980%)</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
           <t>0.989 (-0.010%)</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>0.989 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>0.989 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>0.989 (-0.020%)</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>0.989 (-0.030%)</t>
-        </is>
-      </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.001 (0.12%)</t>
+          <t>1.978 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -9466,22 +9466,22 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.963 (0.062%)</t>
+          <t>0.963 (100.062%)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.962 (0.031%)</t>
+          <t>0.962 (100.031%)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.962 (0.021%)</t>
+          <t>0.962 (-0.010%)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0.962 (0.000%)</t>
+          <t>0.962 (100.000%)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -9491,17 +9491,17 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0.962 (0.010%)</t>
+          <t>0.962 (100.010%)</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0.962 (0.000%)</t>
+          <t>0.962 (-0.010%)</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.001 (0.11%)</t>
+          <t>1.924 (200.05%)</t>
         </is>
       </c>
     </row>
@@ -9526,42 +9526,42 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.966 (0.073%)</t>
+          <t>0.966 (100.073%)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.965 (-0.010%)</t>
+          <t>0.965 (99.990%)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
+          <t>0.965 (0.010%)</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>0.965 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>0.965 (0.010%)</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>0.965 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
           <t>0.965 (0.000%)</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>0.965 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>0.965 (0.010%)</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>0.965 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>0.965 (0.000%)</t>
-        </is>
-      </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.001 (0.10%)</t>
+          <t>1.930 (200.03%)</t>
         </is>
       </c>
     </row>
@@ -9586,22 +9586,22 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.965 (-0.062%)</t>
+          <t>0.965 (99.938%)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.966 (0.010%)</t>
+          <t>0.966 (100.010%)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.966 (-0.031%)</t>
+          <t>0.966 (-0.041%)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0.966 (0.000%)</t>
+          <t>0.966 (100.000%)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -9611,17 +9611,17 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0.966 (0.010%)</t>
+          <t>0.966 (100.010%)</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0.966 (0.000%)</t>
+          <t>0.966 (-0.010%)</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.001 (0.08%)</t>
+          <t>1.932 (199.98%)</t>
         </is>
       </c>
     </row>
@@ -9646,42 +9646,42 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.967 (0.021%)</t>
+          <t>0.967 (100.021%)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>0.967 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>0.967 (0.000%)</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>0.967 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>0.967 (-0.010%)</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>0.967 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>0.967 (0.000%)</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>0.967 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>0.967 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>0.967 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>0.967 (0.000%)</t>
-        </is>
-      </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>1.934 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -9706,22 +9706,22 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>0.968 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.968 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>0.968 (0.000%)</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0.968 (0.000%)</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.968 (0.000%)</t>
-        </is>
-      </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0.968 (0.000%)</t>
+          <t>0.968 (100.000%)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -9731,7 +9731,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0.968 (0.000%)</t>
+          <t>0.968 (100.000%)</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -9741,7 +9741,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.000 (0.02%)</t>
+          <t>1.936 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -9766,12 +9766,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.968 (0.000%)</t>
+          <t>0.968 (100.000%)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.968 (0.000%)</t>
+          <t>0.968 (100.000%)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -9781,7 +9781,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.968 (0.000%)</t>
+          <t>0.968 (100.000%)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -9791,17 +9791,17 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>0.969 (0.010%)</t>
+          <t>0.969 (100.010%)</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0.968 (0.000%)</t>
+          <t>0.968 (-0.010%)</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.000 (0.02%)</t>
+          <t>1.937 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -9826,42 +9826,42 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
+          <t>0.969 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.969 (100.010%)</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.969 (-0.010%)</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>0.969 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>0.969 (0.000%)</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0.969 (0.010%)</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>0.969 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>0.969 (0.000%)</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>0.969 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>0.969 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>0.969 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>0.969 (0.000%)</t>
-        </is>
-      </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0.000 (0.02%)</t>
+          <t>1.938 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -9886,42 +9886,42 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.970 (-0.010%)</t>
+          <t>0.970 (99.990%)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.971 (0.062%)</t>
+          <t>0.971 (100.062%)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.970 (0.010%)</t>
+          <t>0.970 (-0.052%)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0.970 (0.010%)</t>
+          <t>0.970 (100.010%)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0.971 (0.031%)</t>
+          <t>0.971 (0.021%)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>0.970 (0.010%)</t>
+          <t>0.970 (100.010%)</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0.970 (-0.010%)</t>
+          <t>0.970 (-0.021%)</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0.001 (0.14%)</t>
+          <t>1.941 (200.04%)</t>
         </is>
       </c>
     </row>
@@ -9946,42 +9946,42 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.952 (0.074%)</t>
+          <t>0.952 (100.074%)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.951 (-0.021%)</t>
+          <t>0.951 (99.979%)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
+          <t>0.951 (0.042%)</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>0.951 (100.021%)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>0.951 (-0.042%)</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>0.951 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
           <t>0.951 (0.021%)</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>0.951 (0.021%)</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>0.951 (-0.021%)</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>0.951 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>0.951 (0.021%)</t>
-        </is>
-      </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0.002 (0.20%)</t>
+          <t>1.902 (200.04%)</t>
         </is>
       </c>
     </row>
@@ -10006,42 +10006,42 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.954 (-0.021%)</t>
+          <t>0.954 (99.979%)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.954 (-0.031%)</t>
+          <t>0.954 (99.969%)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.954 (-0.010%)</t>
+          <t>0.954 (0.021%)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
+          <t>0.954 (100.010%)</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>0.954 (0.010%)</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>0.954 (99.979%)</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>0.954 (0.021%)</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>0.954 (-0.021%)</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>0.954 (0.000%)</t>
-        </is>
-      </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0.001 (0.14%)</t>
+          <t>1.908 (199.97%)</t>
         </is>
       </c>
     </row>
@@ -10066,42 +10066,42 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
+          <t>0.957 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.957 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.957 (0.021%)</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>0.957 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>0.957 (0.000%)</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>0.957 (0.000%)</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.957 (0.021%)</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>0.957 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>0.957 (0.000%)</t>
-        </is>
-      </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0.956 (-0.010%)</t>
+          <t>0.956 (99.990%)</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0.956 (-0.010%)</t>
+          <t>0.956 (0.000%)</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.001 (0.10%)</t>
+          <t>1.913 (199.99%)</t>
         </is>
       </c>
     </row>
@@ -10126,42 +10126,42 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
+          <t>0.957 (99.958%)</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.958 (100.042%)</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.957 (-0.063%)</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>0.957 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>0.957 (-0.042%)</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0.958 (0.042%)</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.957 (-0.021%)</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>0.957 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>0.957 (-0.042%)</t>
-        </is>
-      </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>0.957 (0.021%)</t>
+          <t>0.957 (100.021%)</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0.957 (-0.010%)</t>
+          <t>0.957 (-0.031%)</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.001 (0.10%)</t>
+          <t>1.915 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -10186,42 +10186,42 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.957 (-0.021%)</t>
+          <t>0.957 (99.979%)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.958 (0.042%)</t>
+          <t>0.958 (100.042%)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
+          <t>0.958 (-0.042%)</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>0.958 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
           <t>0.958 (0.000%)</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>0.958 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>0.958 (0.000%)</t>
-        </is>
-      </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>0.958 (0.021%)</t>
+          <t>0.958 (100.021%)</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>0.958 (0.000%)</t>
+          <t>0.958 (-0.021%)</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.001 (0.06%)</t>
+          <t>1.915 (200.02%)</t>
         </is>
       </c>
     </row>
@@ -10246,22 +10246,22 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.960 (0.000%)</t>
+          <t>0.960 (100.000%)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.960 (0.010%)</t>
+          <t>0.960 (100.010%)</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.960 (0.000%)</t>
+          <t>0.960 (-0.010%)</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0.960 (0.000%)</t>
+          <t>0.960 (100.000%)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -10271,17 +10271,17 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>0.960 (0.010%)</t>
+          <t>0.960 (100.010%)</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0.959 (-0.021%)</t>
+          <t>0.959 (-0.031%)</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>1.919 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -10306,42 +10306,42 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
+          <t>0.959 (100.010%)</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.959 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.959 (-0.010%)</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>0.959 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>0.959 (0.010%)</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>0.959 (0.000%)</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.959 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>0.959 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>0.959 (0.010%)</t>
-        </is>
-      </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>0.959 (0.021%)</t>
+          <t>0.959 (100.021%)</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>0.959 (-0.021%)</t>
+          <t>0.959 (-0.042%)</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0.001 (0.07%)</t>
+          <t>1.919 (200.02%)</t>
         </is>
       </c>
     </row>
@@ -10366,22 +10366,22 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.962 (0.156%)</t>
+          <t>0.962 (100.156%)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.960 (-0.042%)</t>
+          <t>0.960 (99.958%)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.958 (-0.219%)</t>
+          <t>0.958 (-0.177%)</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.961 (0.000%)</t>
+          <t>0.961 (100.000%)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -10391,17 +10391,17 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>0.961 (0.031%)</t>
+          <t>0.961 (100.031%)</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0.959 (-0.156%)</t>
+          <t>0.959 (-0.187%)</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.006 (0.61%)</t>
+          <t>1.922 (200.07%)</t>
         </is>
       </c>
     </row>
@@ -10657,7 +10657,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.001 (0.10%)</t>
+          <t>0.001 (0.08%)</t>
         </is>
       </c>
     </row>
@@ -10717,7 +10717,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.001 (0.07%)</t>
+          <t>0.001 (0.06%)</t>
         </is>
       </c>
     </row>
@@ -11137,7 +11137,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.001 (0.14%)</t>
+          <t>0.001 (0.12%)</t>
         </is>
       </c>
     </row>
@@ -11377,7 +11377,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0.001 (0.14%)</t>
+          <t>0.001 (0.13%)</t>
         </is>
       </c>
     </row>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.001 (0.15%)</t>
+          <t>0.001 (0.14%)</t>
         </is>
       </c>
     </row>
@@ -11617,7 +11617,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.002 (0.15%)</t>
+          <t>0.001 (0.10%)</t>
         </is>
       </c>
     </row>
@@ -11857,7 +11857,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0.001 (0.07%)</t>
+          <t>0.000 (0.04%)</t>
         </is>
       </c>
     </row>
@@ -11917,7 +11917,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0.003 (0.29%)</t>
+          <t>0.003 (0.28%)</t>
         </is>
       </c>
     </row>
@@ -11977,7 +11977,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0.004 (0.38%)</t>
+          <t>0.004 (0.37%)</t>
         </is>
       </c>
     </row>
@@ -12397,7 +12397,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.009 (0.91%)</t>
+          <t>0.008 (0.89%)</t>
         </is>
       </c>
     </row>
@@ -12533,7 +12533,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.002 (0.18%)</t>
+          <t>0.002 (0.17%)</t>
         </is>
       </c>
     </row>
@@ -12593,7 +12593,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.001 (0.09%)</t>
+          <t>0.001 (0.08%)</t>
         </is>
       </c>
     </row>
@@ -12893,7 +12893,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.001 (0.06%)</t>
+          <t>0.000 (0.05%)</t>
         </is>
       </c>
     </row>
@@ -13433,7 +13433,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.001 (0.15%)</t>
+          <t>0.001 (0.14%)</t>
         </is>
       </c>
     </row>
@@ -13793,7 +13793,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.000 (0.03%)</t>
+          <t>0.000 (0.02%)</t>
         </is>
       </c>
     </row>
@@ -13913,7 +13913,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0.002 (0.17%)</t>
+          <t>0.002 (0.16%)</t>
         </is>
       </c>
     </row>
@@ -14093,7 +14093,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.001 (0.11%)</t>
+          <t>0.001 (0.10%)</t>
         </is>
       </c>
     </row>
@@ -14153,7 +14153,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.001 (0.09%)</t>
+          <t>0.001 (0.08%)</t>
         </is>
       </c>
     </row>
@@ -14393,7 +14393,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.005 (0.49%)</t>
+          <t>0.004 (0.47%)</t>
         </is>
       </c>
     </row>
@@ -14494,42 +14494,42 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.962 (-0.010%)</t>
+          <t>0.962 (99.990%)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>0.962 (99.979%)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.962 (0.031%)</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0.962 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>0.962 (-0.021%)</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>0.962 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>0.962 (0.010%)</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0.962 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>0.962 (-0.021%)</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>0.962 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0.962 (0.010%)</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.001 (0.12%)</t>
+          <t>1.923 (199.98%)</t>
         </is>
       </c>
     </row>
@@ -14554,42 +14554,42 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>0.964 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.964 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.964 (-0.031%)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.964 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0.964 (0.010%)</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0.964 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>0.964 (0.000%)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.964 (0.000%)</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.964 (-0.031%)</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0.964 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>0.964 (0.010%)</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>0.964 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0.964 (0.000%)</t>
-        </is>
-      </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.001 (0.07%)</t>
+          <t>1.928 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -14614,42 +14614,42 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.966 (0.000%)</t>
+          <t>0.966 (100.000%)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>0.966 (99.990%)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.966 (0.010%)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.966 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.966 (0.021%)</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0.966 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>0.966 (-0.010%)</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.966 (0.000%)</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0.966 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0.966 (0.021%)</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>0.966 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0.966 (-0.010%)</t>
-        </is>
-      </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.000 (0.05%)</t>
+          <t>1.932 (199.99%)</t>
         </is>
       </c>
     </row>
@@ -14674,42 +14674,42 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>0.966 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.966 (100.010%)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>0.966 (0.000%)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.966 (0.010%)</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.966 (0.010%)</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>0.966 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.966 (0.021%)</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>0.966 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>0.966 (0.000%)</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0.966 (0.021%)</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>0.966 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0.966 (0.000%)</t>
-        </is>
-      </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>1.932 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -14734,42 +14734,42 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>0.966 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.966 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>0.966 (0.000%)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0.966 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>0.966 (0.000%)</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.966 (0.000%)</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0.966 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0.966 (0.000%)</t>
-        </is>
-      </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.966 (-0.010%)</t>
+          <t>0.966 (99.990%)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.966 (0.000%)</t>
+          <t>0.966 (0.010%)</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.000 (0.01%)</t>
+          <t>1.932 (199.99%)</t>
         </is>
       </c>
     </row>
@@ -14794,42 +14794,42 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>0.965 (99.990%)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.965 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.965 (0.000%)</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0.965 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>0.965 (-0.010%)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>0.965 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>0.965 (0.000%)</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.965 (0.000%)</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0.965 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.965 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>0.965 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>0.965 (0.000%)</t>
-        </is>
-      </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.000 (0.02%)</t>
+          <t>1.930 (199.99%)</t>
         </is>
       </c>
     </row>
@@ -14854,42 +14854,42 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>0.964 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.964 (100.010%)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.964 (-0.010%)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0.964 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>0.964 (0.000%)</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.964 (0.010%)</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>0.964 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>0.964 (0.000%)</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0.964 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.964 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>0.964 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0.964 (0.000%)</t>
-        </is>
-      </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.000 (0.02%)</t>
+          <t>1.927 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -14914,42 +14914,42 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.961 (0.042%)</t>
+          <t>0.961 (100.042%)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>0.960 (99.990%)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.961 (0.021%)</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0.960 (99.990%)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0.960 (-0.021%)</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>0.960 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
           <t>0.960 (-0.010%)</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.961 (0.010%)</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0.960 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0.960 (-0.031%)</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>0.960 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>0.960 (-0.010%)</t>
-        </is>
-      </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.001 (0.14%)</t>
+          <t>1.921 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -14974,42 +14974,42 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.989 (0.010%)</t>
+          <t>0.989 (100.010%)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.989 (-0.020%)</t>
+          <t>0.989 (99.980%)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>0.989 (0.040%)</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0.989 (100.010%)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>0.989 (0.020%)</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0.989 (0.010%)</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>0.989 (0.030%)</t>
-        </is>
-      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.989 (0.020%)</t>
+          <t>0.989 (100.020%)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.989 (0.020%)</t>
+          <t>0.989 (0.000%)</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.001 (0.11%)</t>
+          <t>1.978 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -15034,22 +15034,22 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>0.990 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.990 (99.990%)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>0.990 (0.000%)</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.990 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.990 (-0.010%)</t>
-        </is>
-      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.990 (0.000%)</t>
+          <t>0.990 (100.000%)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -15059,17 +15059,17 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0.990 (-0.020%)</t>
+          <t>0.990 (99.980%)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.990 (0.010%)</t>
+          <t>0.990 (0.030%)</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.001 (0.06%)</t>
+          <t>1.980 (199.98%)</t>
         </is>
       </c>
     </row>
@@ -15094,22 +15094,22 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.990 (0.000%)</t>
+          <t>0.990 (100.000%)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.990 (0.010%)</t>
+          <t>0.990 (100.010%)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.990 (0.000%)</t>
+          <t>0.990 (-0.010%)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.990 (0.000%)</t>
+          <t>0.990 (100.000%)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -15119,17 +15119,17 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0.990 (0.010%)</t>
+          <t>0.990 (100.010%)</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0.990 (0.000%)</t>
+          <t>0.990 (-0.010%)</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>1.980 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -15154,42 +15154,42 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>0.991 (100.010%)</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.991 (100.010%)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.991 (-0.010%)</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0.991 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>0.991 (0.010%)</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.991 (0.010%)</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.991 (0.000%)</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0.991 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>0.991 (0.010%)</t>
-        </is>
-      </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0.991 (0.010%)</t>
+          <t>0.991 (100.010%)</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0.991 (0.000%)</t>
+          <t>0.991 (-0.010%)</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>1.982 (200.02%)</t>
         </is>
       </c>
     </row>
@@ -15214,42 +15214,42 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.991 (0.010%)</t>
+          <t>0.991 (100.010%)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>0.991 (100.020%)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.991 (0.000%)</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0.991 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>0.991 (0.020%)</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.991 (0.020%)</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0.991 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>0.991 (0.020%)</t>
-        </is>
-      </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0.991 (0.020%)</t>
+          <t>0.991 (100.020%)</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0.991 (0.010%)</t>
+          <t>0.991 (-0.010%)</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>1.982 (200.03%)</t>
         </is>
       </c>
     </row>
@@ -15274,42 +15274,42 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>0.991 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.991 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>0.991 (0.000%)</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0.991 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>0.991 (0.000%)</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>0.991 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>0.991 (0.000%)</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0.991 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>0.991 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>0.991 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>0.991 (0.000%)</t>
-        </is>
-      </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.000 (0.01%)</t>
+          <t>1.982 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -15334,42 +15334,42 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>0.991 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.991 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>0.991 (0.000%)</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0.991 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>0.991 (0.000%)</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>0.991 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>0.991 (0.000%)</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0.991 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>0.991 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>0.991 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>0.991 (0.000%)</t>
-        </is>
-      </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0.000 (0.02%)</t>
+          <t>1.982 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -15394,42 +15394,42 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>0.991 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.991 (100.010%)</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.991 (-0.010%)</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0.991 (100.010%)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>0.991 (0.000%)</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0.991 (0.010%)</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>0.991 (99.990%)</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>0.991 (0.000%)</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>0.991 (0.010%)</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>0.991 (0.010%)</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>0.991 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>0.991 (-0.010%)</t>
-        </is>
-      </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.001 (0.10%)</t>
+          <t>1.981 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -15454,22 +15454,22 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.965 (0.000%)</t>
+          <t>0.965 (100.000%)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.965 (0.041%)</t>
+          <t>0.965 (100.041%)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.965 (0.010%)</t>
+          <t>0.965 (-0.031%)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0.965 (0.000%)</t>
+          <t>0.965 (100.000%)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -15479,17 +15479,17 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0.965 (0.021%)</t>
+          <t>0.965 (100.021%)</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0.965 (0.010%)</t>
+          <t>0.965 (-0.010%)</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.001 (0.12%)</t>
+          <t>1.930 (200.03%)</t>
         </is>
       </c>
     </row>
@@ -15514,42 +15514,42 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>0.967 (99.990%)</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.967 (100.021%)</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.967 (-0.021%)</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>0.967 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>0.967 (-0.010%)</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>0.967 (99.990%)</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>0.967 (0.021%)</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.967 (0.000%)</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>0.967 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>0.967 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>0.967 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>0.967 (0.010%)</t>
-        </is>
-      </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.001 (0.07%)</t>
+          <t>1.933 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -15574,42 +15574,42 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>0.968 (100.010%)</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.968 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>0.968 (0.010%)</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>0.968 (0.000%)</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>0.968 (100.010%)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>0.968 (0.010%)</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>0.968 (0.010%)</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>0.968 (0.021%)</t>
-        </is>
-      </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0.968 (0.010%)</t>
+          <t>0.968 (100.010%)</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0.968 (0.000%)</t>
+          <t>0.968 (-0.010%)</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.000 (0.05%)</t>
+          <t>1.936 (200.02%)</t>
         </is>
       </c>
     </row>
@@ -15634,42 +15634,42 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>0.968 (100.010%)</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.968 (99.990%)</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>0.968 (0.010%)</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>0.968 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>0.968 (0.000%)</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>0.968 (100.010%)</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>0.968 (-0.010%)</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.968 (0.000%)</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>0.968 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>0.968 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>0.968 (0.010%)</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>0.968 (0.000%)</t>
-        </is>
-      </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>1.936 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -15694,42 +15694,42 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.969 (0.010%)</t>
+          <t>0.969 (100.010%)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>0.969 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>0.969 (0.000%)</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>0.969 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>0.969 (0.000%)</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>0.969 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>0.969 (0.000%)</t>
-        </is>
-      </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0.969 (0.010%)</t>
+          <t>0.969 (100.010%)</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>0.969 (0.000%)</t>
+          <t>0.969 (-0.010%)</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.000 (0.02%)</t>
+          <t>1.938 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -15754,42 +15754,42 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>0.970 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.970 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>0.970 (0.000%)</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>0.970 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>0.970 (0.000%)</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>0.970 (100.010%)</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>0.970 (0.000%)</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>0.970 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>0.970 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>0.970 (0.010%)</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>0.970 (0.010%)</t>
-        </is>
-      </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.000 (0.02%)</t>
+          <t>1.939 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -15814,42 +15814,42 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
+          <t>0.970 (99.990%)</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.970 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>0.970 (-0.010%)</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>0.970 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>0.970 (0.000%)</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.970 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>0.970 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>0.970 (0.000%)</t>
-        </is>
-      </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>0.970 (0.010%)</t>
+          <t>0.970 (100.010%)</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0.970 (-0.010%)</t>
+          <t>0.970 (-0.021%)</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0.000 (0.03%)</t>
+          <t>1.940 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -15874,22 +15874,22 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.973 (0.010%)</t>
+          <t>0.973 (100.010%)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.974 (0.062%)</t>
+          <t>0.974 (100.062%)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.973 (0.000%)</t>
+          <t>0.973 (-0.062%)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0.973 (0.000%)</t>
+          <t>0.973 (100.000%)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -15899,17 +15899,17 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
+          <t>0.973 (99.990%)</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
           <t>0.973 (-0.010%)</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>0.973 (-0.021%)</t>
-        </is>
-      </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0.001 (0.15%)</t>
+          <t>1.946 (200.03%)</t>
         </is>
       </c>
     </row>
@@ -15934,42 +15934,42 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
+          <t>0.955 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.955 (100.031%)</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.955 (-0.031%)</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>0.955 (99.990%)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>0.956 (0.105%)</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>0.955 (100.010%)</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
           <t>0.955 (0.000%)</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0.955 (0.031%)</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.955 (0.000%)</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>0.955 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>0.956 (0.094%)</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>0.955 (0.010%)</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>0.955 (0.010%)</t>
-        </is>
-      </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0.002 (0.20%)</t>
+          <t>1.910 (200.02%)</t>
         </is>
       </c>
     </row>
@@ -15994,42 +15994,42 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.960 (-0.042%)</t>
+          <t>0.960 (99.958%)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.961 (0.073%)</t>
+          <t>0.961 (100.073%)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.960 (-0.052%)</t>
+          <t>0.960 (-0.125%)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0.961 (0.010%)</t>
+          <t>0.961 (100.010%)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0.961 (0.052%)</t>
+          <t>0.961 (0.042%)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>0.961 (0.042%)</t>
+          <t>0.961 (100.042%)</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0.961 (0.021%)</t>
+          <t>0.961 (-0.021%)</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0.002 (0.17%)</t>
+          <t>1.921 (200.04%)</t>
         </is>
       </c>
     </row>
@@ -16054,22 +16054,22 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.964 (0.010%)</t>
+          <t>0.964 (100.010%)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.964 (-0.021%)</t>
+          <t>0.964 (99.979%)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.963 (-0.093%)</t>
+          <t>0.963 (-0.073%)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0.964 (0.000%)</t>
+          <t>0.964 (100.000%)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -16079,17 +16079,17 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0.964 (-0.010%)</t>
+          <t>0.964 (99.990%)</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0.964 (0.010%)</t>
+          <t>0.964 (0.021%)</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.001 (0.13%)</t>
+          <t>1.928 (199.99%)</t>
         </is>
       </c>
     </row>
@@ -16114,42 +16114,42 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
+          <t>0.965 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.965 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>0.965 (0.000%)</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>0.965 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>0.965 (-0.010%)</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>0.965 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>0.965 (0.000%)</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.965 (0.000%)</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>0.965 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>0.965 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>0.965 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>0.965 (0.000%)</t>
-        </is>
-      </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.001 (0.06%)</t>
+          <t>1.931 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -16174,42 +16174,42 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.965 (0.000%)</t>
+          <t>0.965 (100.000%)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.965 (0.021%)</t>
+          <t>0.965 (100.021%)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
+          <t>0.965 (-0.010%)</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>0.965 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
           <t>0.965 (0.010%)</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>0.965 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>0.965 (0.010%)</t>
-        </is>
-      </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>0.965 (0.021%)</t>
+          <t>0.965 (100.021%)</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>0.965 (0.000%)</t>
+          <t>0.965 (-0.021%)</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.000 (0.05%)</t>
+          <t>1.930 (200.02%)</t>
         </is>
       </c>
     </row>
@@ -16234,42 +16234,42 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
+          <t>0.966 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.966 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.966 (-0.010%)</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>0.966 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>0.966 (0.000%)</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>0.966 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>0.966 (0.000%)</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.966 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>0.966 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>0.966 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>0.966 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>0.966 (0.000%)</t>
-        </is>
-      </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>0.000 (0.03%)</t>
+          <t>1.932 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -16294,32 +16294,32 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
+          <t>0.966 (100.010%)</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.966 (99.990%)</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>0.966 (0.010%)</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>0.966 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>0.966 (-0.010%)</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.966 (0.000%)</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>0.966 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>0.966 (-0.010%)</t>
-        </is>
-      </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>0.966 (0.000%)</t>
+          <t>0.966 (100.000%)</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -16329,7 +16329,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0.001 (0.07%)</t>
+          <t>1.932 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -16354,42 +16354,42 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.961 (0.177%)</t>
+          <t>0.961 (100.177%)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.958 (-0.125%)</t>
+          <t>0.958 (99.875%)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.958 (-0.115%)</t>
+          <t>0.958 (0.010%)</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
+          <t>0.959 (100.031%)</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>0.960 (0.073%)</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>0.959 (99.948%)</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
           <t>0.959 (0.031%)</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>0.960 (0.104%)</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>0.959 (-0.052%)</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>0.959 (-0.021%)</t>
-        </is>
-      </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.005 (0.52%)</t>
+          <t>1.918 (200.02%)</t>
         </is>
       </c>
     </row>
@@ -16525,7 +16525,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.002 (0.20%)</t>
+          <t>0.002 (0.19%)</t>
         </is>
       </c>
     </row>
@@ -16885,7 +16885,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.001 (0.06%)</t>
+          <t>0.000 (0.05%)</t>
         </is>
       </c>
     </row>
@@ -17125,7 +17125,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.001 (0.09%)</t>
+          <t>0.001 (0.08%)</t>
         </is>
       </c>
     </row>
@@ -17245,7 +17245,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.001 (0.06%)</t>
+          <t>0.000 (0.05%)</t>
         </is>
       </c>
     </row>
@@ -17425,7 +17425,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.002 (0.18%)</t>
+          <t>0.002 (0.17%)</t>
         </is>
       </c>
     </row>
@@ -17485,7 +17485,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.001 (0.14%)</t>
+          <t>0.001 (0.13%)</t>
         </is>
       </c>
     </row>
@@ -17845,7 +17845,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0.001 (0.09%)</t>
+          <t>0.001 (0.08%)</t>
         </is>
       </c>
     </row>
@@ -18025,7 +18025,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0.002 (0.19%)</t>
+          <t>0.002 (0.18%)</t>
         </is>
       </c>
     </row>
@@ -18085,7 +18085,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.001 (0.15%)</t>
+          <t>0.001 (0.14%)</t>
         </is>
       </c>
     </row>
@@ -18145,7 +18145,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.001 (0.11%)</t>
+          <t>0.001 (0.10%)</t>
         </is>
       </c>
     </row>
@@ -18205,7 +18205,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.001 (0.06%)</t>
+          <t>0.001 (0.05%)</t>
         </is>
       </c>
     </row>
@@ -18385,7 +18385,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.007 (0.68%)</t>
+          <t>0.006 (0.64%)</t>
         </is>
       </c>
     </row>
@@ -18521,7 +18521,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.001 (0.15%)</t>
+          <t>0.001 (0.14%)</t>
         </is>
       </c>
     </row>
@@ -18701,7 +18701,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>0.000 (0.03%)</t>
         </is>
       </c>
     </row>
@@ -18941,7 +18941,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.002 (0.19%)</t>
+          <t>0.002 (0.18%)</t>
         </is>
       </c>
     </row>
@@ -19061,7 +19061,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.001 (0.13%)</t>
+          <t>0.001 (0.11%)</t>
         </is>
       </c>
     </row>
@@ -19121,7 +19121,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.001 (0.11%)</t>
+          <t>0.001 (0.08%)</t>
         </is>
       </c>
     </row>
@@ -19181,7 +19181,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.001 (0.07%)</t>
+          <t>0.001 (0.06%)</t>
         </is>
       </c>
     </row>
@@ -19421,7 +19421,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.002 (0.23%)</t>
+          <t>0.002 (0.22%)</t>
         </is>
       </c>
     </row>
@@ -19481,7 +19481,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.001 (0.11%)</t>
+          <t>0.001 (0.10%)</t>
         </is>
       </c>
     </row>
@@ -19901,7 +19901,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0.001 (0.14%)</t>
+          <t>0.001 (0.13%)</t>
         </is>
       </c>
     </row>
@@ -20021,7 +20021,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0.001 (0.13%)</t>
+          <t>0.001 (0.12%)</t>
         </is>
       </c>
     </row>
@@ -20081,7 +20081,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.001 (0.13%)</t>
+          <t>0.001 (0.12%)</t>
         </is>
       </c>
     </row>
@@ -20381,7 +20381,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.008 (0.85%)</t>
+          <t>0.007 (0.77%)</t>
         </is>
       </c>
     </row>
@@ -20482,42 +20482,42 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>0.950 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.950 (99.989%)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>0.950 (0.000%)</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0.950 (99.989%)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0.950 (0.011%)</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>0.950 (99.989%)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>0.950 (-0.011%)</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.950 (-0.011%)</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0.950 (-0.011%)</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>0.950 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>0.950 (-0.011%)</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0.950 (-0.021%)</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.001 (0.12%)</t>
+          <t>1.900 (199.98%)</t>
         </is>
       </c>
     </row>
@@ -20542,42 +20542,42 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>0.952 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.952 (100.011%)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>0.952 (0.000%)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.952 (0.011%)</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.952 (0.011%)</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.952 (0.011%)</t>
+          <t>0.952 (100.011%)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.952 (0.000%)</t>
+          <t>0.952 (-0.011%)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.952 (0.011%)</t>
+          <t>0.952 (100.011%)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.952 (0.000%)</t>
+          <t>0.952 (-0.011%)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.001 (0.08%)</t>
+          <t>1.905 (200.02%)</t>
         </is>
       </c>
     </row>
@@ -20602,42 +20602,42 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.954 (-0.021%)</t>
+          <t>0.954 (99.979%)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>0.954 (100.010%)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.954 (-0.010%)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.954 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.954 (0.021%)</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0.954 (99.990%)</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>0.954 (0.010%)</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.954 (0.000%)</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0.954 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0.954 (0.021%)</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>0.954 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0.954 (0.000%)</t>
-        </is>
-      </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.001 (0.05%)</t>
+          <t>1.908 (199.99%)</t>
         </is>
       </c>
     </row>
@@ -20662,42 +20662,42 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>0.954 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.954 (99.990%)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.954 (0.021%)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.954 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>0.954 (0.000%)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.954 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.954 (0.010%)</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>0.954 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>0.954 (0.000%)</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0.954 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>0.954 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0.954 (0.000%)</t>
-        </is>
-      </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.000 (0.03%)</t>
+          <t>1.907 (199.99%)</t>
         </is>
       </c>
     </row>
@@ -20722,42 +20722,42 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>0.953 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.953 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>0.953 (0.000%)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0.953 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>0.953 (0.000%)</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>0.953 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>0.953 (0.000%)</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0.953 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0.953 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>0.953 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0.953 (0.000%)</t>
-        </is>
-      </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.000 (0.01%)</t>
+          <t>1.906 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -20782,42 +20782,42 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>0.952 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.952 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>0.952 (0.000%)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0.952 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>0.952 (0.000%)</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>0.952 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>0.952 (0.000%)</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0.952 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.952 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>0.952 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>0.952 (0.000%)</t>
-        </is>
-      </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.000 (0.01%)</t>
+          <t>1.903 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -20842,42 +20842,42 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>0.950 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.950 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>0.950 (0.000%)</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0.950 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0.950 (-0.011%)</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>0.950 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>0.950 (0.000%)</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.950 (0.000%)</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0.950 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.950 (-0.011%)</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>0.950 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0.950 (0.000%)</t>
-        </is>
-      </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.000 (0.02%)</t>
+          <t>1.900 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -20902,32 +20902,32 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>0.942 (99.979%)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.942 (99.979%)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>0.942 (-0.021%)</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.942 (-0.021%)</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0.943 (100.011%)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>0.942 (-0.042%)</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0.943 (0.011%)</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0.942 (-0.032%)</t>
-        </is>
-      </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0.943 (0.000%)</t>
+          <t>0.943 (100.000%)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -20937,7 +20937,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.002 (0.17%)</t>
+          <t>1.885 (199.98%)</t>
         </is>
       </c>
     </row>
@@ -20962,42 +20962,42 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.951 (-0.053%)</t>
+          <t>0.951 (99.947%)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.951 (-0.137%)</t>
+          <t>0.951 (99.863%)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.952 (-0.032%)</t>
+          <t>0.952 (0.105%)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.951 (-0.095%)</t>
+          <t>0.951 (99.905%)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>0.951 (-0.032%)</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>0.952 (100.053%)</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
           <t>0.951 (-0.126%)</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>0.952 (0.053%)</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>0.951 (-0.074%)</t>
-        </is>
-      </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.003 (0.29%)</t>
+          <t>1.903 (199.88%)</t>
         </is>
       </c>
     </row>
@@ -21022,22 +21022,22 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.957 (0.000%)</t>
+          <t>0.957 (100.000%)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.956 (-0.021%)</t>
+          <t>0.956 (99.979%)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.957 (0.031%)</t>
+          <t>0.957 (0.052%)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.957 (0.000%)</t>
+          <t>0.957 (100.000%)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -21047,17 +21047,17 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0.956 (-0.010%)</t>
+          <t>0.956 (99.990%)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.956 (-0.010%)</t>
+          <t>0.956 (0.000%)</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.001 (0.12%)</t>
+          <t>1.913 (199.98%)</t>
         </is>
       </c>
     </row>
@@ -21082,42 +21082,42 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.963 (0.000%)</t>
+          <t>0.963 (100.000%)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>0.963 (100.010%)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>0.963 (0.010%)</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.963 (0.021%)</t>
-        </is>
-      </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>0.963 (100.010%)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>0.963 (0.010%)</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>0.963 (0.021%)</t>
-        </is>
-      </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0.964 (0.042%)</t>
+          <t>0.964 (100.042%)</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0.963 (0.010%)</t>
+          <t>0.963 (-0.031%)</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.001 (0.10%)</t>
+          <t>1.927 (200.03%)</t>
         </is>
       </c>
     </row>
@@ -21142,42 +21142,42 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.966 (0.010%)</t>
+          <t>0.966 (100.010%)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.966 (0.021%)</t>
+          <t>0.966 (100.021%)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.966 (-0.010%)</t>
+          <t>0.966 (-0.031%)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0.966 (0.010%)</t>
+          <t>0.966 (100.010%)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0.966 (0.010%)</t>
+          <t>0.966 (0.000%)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0.966 (0.010%)</t>
+          <t>0.966 (100.010%)</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0.966 (0.010%)</t>
+          <t>0.966 (0.000%)</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.001 (0.06%)</t>
+          <t>1.932 (200.03%)</t>
         </is>
       </c>
     </row>
@@ -21202,42 +21202,42 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>0.968 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.968 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>0.968 (0.000%)</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0.968 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>0.968 (0.000%)</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.968 (0.000%)</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0.968 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>0.968 (0.000%)</t>
-        </is>
-      </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0.968 (-0.010%)</t>
+          <t>0.968 (99.990%)</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0.968 (0.000%)</t>
+          <t>0.968 (0.010%)</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.000 (0.02%)</t>
+          <t>1.937 (199.99%)</t>
         </is>
       </c>
     </row>
@@ -21262,42 +21262,42 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>0.969 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.969 (100.010%)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>0.969 (0.000%)</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.969 (0.010%)</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.969 (0.010%)</t>
-        </is>
-      </c>
       <c r="H15" t="inlineStr">
         <is>
+          <t>0.969 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>0.969 (0.000%)</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>0.969 (0.000%)</t>
-        </is>
-      </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>0.969 (0.010%)</t>
+          <t>0.969 (100.010%)</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0.969 (0.000%)</t>
+          <t>0.969 (-0.010%)</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.000 (0.03%)</t>
+          <t>1.938 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -21322,42 +21322,42 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>0.969 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.969 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>0.969 (0.000%)</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0.969 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>0.969 (0.010%)</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>0.969 (99.990%)</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>0.969 (0.000%)</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.969 (0.000%)</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0.969 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>0.969 (0.010%)</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>0.969 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>0.969 (-0.010%)</t>
-        </is>
-      </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>1.938 (199.99%)</t>
         </is>
       </c>
     </row>
@@ -21382,22 +21382,22 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.966 (0.021%)</t>
+          <t>0.966 (100.021%)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.966 (-0.010%)</t>
+          <t>0.966 (99.990%)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.966 (-0.031%)</t>
+          <t>0.966 (-0.021%)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.966 (0.000%)</t>
+          <t>0.966 (100.000%)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -21407,17 +21407,17 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0.966 (0.041%)</t>
+          <t>0.966 (100.041%)</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0.966 (0.021%)</t>
+          <t>0.966 (-0.021%)</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.002 (0.22%)</t>
+          <t>1.932 (200.03%)</t>
         </is>
       </c>
     </row>
@@ -21442,42 +21442,42 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>0.931 (99.957%)</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.931 (99.957%)</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>0.931 (-0.043%)</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>0.931 (-0.043%)</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.931 (-0.086%)</t>
-        </is>
-      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0.931 (0.011%)</t>
+          <t>0.931 (100.011%)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>0.932 (0.021%)</t>
+          <t>0.932 (0.011%)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0.932 (0.021%)</t>
+          <t>0.932 (100.021%)</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0.931 (0.000%)</t>
+          <t>0.931 (-0.021%)</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.002 (0.16%)</t>
+          <t>1.863 (199.97%)</t>
         </is>
       </c>
     </row>
@@ -21502,42 +21502,42 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.933 (0.032%)</t>
+          <t>0.933 (100.032%)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.932 (-0.011%)</t>
+          <t>0.932 (99.989%)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.933 (0.043%)</t>
+          <t>0.933 (0.054%)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0.933 (0.011%)</t>
+          <t>0.933 (100.011%)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.931 (-0.118%)</t>
+          <t>0.931 (-0.129%)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0.933 (0.021%)</t>
+          <t>0.933 (100.021%)</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0.933 (0.011%)</t>
+          <t>0.933 (-0.011%)</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.001 (0.16%)</t>
+          <t>1.865 (200.03%)</t>
         </is>
       </c>
     </row>
@@ -21562,42 +21562,42 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.936 (0.011%)</t>
+          <t>0.936 (100.011%)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.936 (0.011%)</t>
+          <t>0.936 (100.011%)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.936 (0.000%)</t>
+          <t>0.936 (-0.011%)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0.936 (0.011%)</t>
+          <t>0.936 (100.011%)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.936 (0.043%)</t>
+          <t>0.936 (0.032%)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0.936 (0.011%)</t>
+          <t>0.936 (100.011%)</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0.936 (-0.011%)</t>
+          <t>0.936 (-0.021%)</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.001 (0.08%)</t>
+          <t>1.872 (200.02%)</t>
         </is>
       </c>
     </row>
@@ -21622,42 +21622,42 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.936 (0.011%)</t>
+          <t>0.936 (100.011%)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>0.936 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>0.936 (0.000%)</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>0.936 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>0.936 (0.000%)</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>0.936 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>0.936 (0.000%)</t>
-        </is>
-      </c>
       <c r="J21" t="inlineStr">
         <is>
+          <t>0.936 (99.989%)</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
           <t>0.936 (-0.011%)</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>0.936 (-0.021%)</t>
-        </is>
-      </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.000 (0.05%)</t>
+          <t>1.872 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -21682,42 +21682,42 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>0.935 (100.011%)</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.935 (100.021%)</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.935 (-0.011%)</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>0.935 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>0.935 (0.011%)</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0.935 (0.021%)</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.935 (0.011%)</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>0.935 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>0.935 (0.011%)</t>
-        </is>
-      </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0.935 (0.021%)</t>
+          <t>0.935 (100.021%)</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>0.935 (-0.011%)</t>
+          <t>0.935 (-0.032%)</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>1.870 (200.03%)</t>
         </is>
       </c>
     </row>
@@ -21742,42 +21742,42 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>0.940 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.940 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>0.940 (0.000%)</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>0.940 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>0.940 (0.000%)</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>0.940 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>0.940 (0.000%)</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>0.940 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>0.940 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>0.940 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>0.940 (0.000%)</t>
-        </is>
-      </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.000 (0.01%)</t>
+          <t>1.881 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -21802,42 +21802,42 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
+          <t>0.946 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.946 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.946 (-0.011%)</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>0.946 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>0.946 (0.000%)</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0.946 (0.000%)</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>0.946 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>0.946 (-0.011%)</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>0.946 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>0.946 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>0.946 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>0.946 (-0.011%)</t>
-        </is>
-      </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>1.892 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -21862,12 +21862,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.949 (0.000%)</t>
+          <t>0.949 (100.000%)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.949 (0.000%)</t>
+          <t>0.949 (100.000%)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -21877,7 +21877,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0.949 (0.000%)</t>
+          <t>0.949 (100.000%)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -21887,17 +21887,17 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>0.950 (0.021%)</t>
+          <t>0.950 (100.021%)</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0.949 (-0.042%)</t>
+          <t>0.949 (-0.063%)</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0.002 (0.19%)</t>
+          <t>1.899 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -21922,42 +21922,42 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.901 (0.067%)</t>
+          <t>0.901 (100.067%)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.900 (-0.089%)</t>
+          <t>0.900 (99.911%)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.901 (0.011%)</t>
+          <t>0.901 (0.100%)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.900 (-0.011%)</t>
+          <t>0.900 (99.989%)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0.902 (0.155%)</t>
+          <t>0.902 (0.167%)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0.901 (0.022%)</t>
+          <t>0.901 (100.022%)</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0.900 (-0.033%)</t>
+          <t>0.900 (-0.056%)</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0.003 (0.34%)</t>
+          <t>1.801 (199.99%)</t>
         </is>
       </c>
     </row>
@@ -21982,42 +21982,42 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.910 (-0.033%)</t>
+          <t>0.910 (99.967%)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.911 (0.044%)</t>
+          <t>0.911 (100.044%)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.910 (-0.022%)</t>
+          <t>0.910 (-0.066%)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0.911 (0.022%)</t>
+          <t>0.911 (100.022%)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0.911 (0.022%)</t>
+          <t>0.911 (0.000%)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>0.911 (0.055%)</t>
+          <t>0.911 (100.055%)</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0.911 (-0.011%)</t>
+          <t>0.911 (-0.066%)</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0.002 (0.22%)</t>
+          <t>1.822 (200.04%)</t>
         </is>
       </c>
     </row>
@@ -22042,22 +22042,22 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.915 (-0.044%)</t>
+          <t>0.915 (99.956%)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.916 (0.066%)</t>
+          <t>0.916 (100.066%)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.916 (0.076%)</t>
+          <t>0.916 (0.011%)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0.915 (0.000%)</t>
+          <t>0.915 (100.000%)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -22067,17 +22067,17 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0.915 (0.044%)</t>
+          <t>0.915 (100.044%)</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0.915 (0.011%)</t>
+          <t>0.915 (-0.033%)</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.002 (0.19%)</t>
+          <t>1.831 (200.03%)</t>
         </is>
       </c>
     </row>
@@ -22102,42 +22102,42 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
+          <t>0.918 (99.967%)</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.918 (99.989%)</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.917 (-0.044%)</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>0.918 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>0.918 (-0.033%)</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0.918 (-0.011%)</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.917 (-0.054%)</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>0.918 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>0.918 (-0.033%)</t>
-        </is>
-      </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>0.918 (0.011%)</t>
+          <t>0.918 (100.011%)</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0.918 (-0.011%)</t>
+          <t>0.918 (-0.022%)</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.001 (0.12%)</t>
+          <t>1.836 (199.98%)</t>
         </is>
       </c>
     </row>
@@ -22162,22 +22162,22 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.918 (0.000%)</t>
+          <t>0.918 (100.000%)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.918 (-0.022%)</t>
+          <t>0.918 (99.978%)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.918 (0.000%)</t>
+          <t>0.918 (0.022%)</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0.918 (0.000%)</t>
+          <t>0.918 (100.000%)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -22187,17 +22187,17 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>0.918 (0.022%)</t>
+          <t>0.918 (100.022%)</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>0.918 (-0.011%)</t>
+          <t>0.918 (-0.033%)</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.001 (0.06%)</t>
+          <t>1.836 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -22222,42 +22222,42 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
+          <t>0.917 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.917 (99.989%)</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.917 (0.011%)</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>0.917 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>0.917 (0.000%)</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>0.917 (-0.011%)</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.917 (0.000%)</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>0.917 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>0.917 (0.000%)</t>
-        </is>
-      </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>0.917 (0.022%)</t>
+          <t>0.917 (100.022%)</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0.917 (0.000%)</t>
+          <t>0.917 (-0.022%)</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>0.000 (0.05%)</t>
+          <t>1.834 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -22282,12 +22282,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.916 (-0.011%)</t>
+          <t>0.916 (99.989%)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.916 (0.000%)</t>
+          <t>0.916 (100.000%)</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -22297,7 +22297,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0.916 (0.000%)</t>
+          <t>0.916 (100.000%)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -22307,17 +22307,17 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>0.916 (-0.022%)</t>
+          <t>0.916 (99.978%)</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>0.916 (-0.011%)</t>
+          <t>0.916 (0.011%)</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0.001 (0.10%)</t>
+          <t>1.832 (199.98%)</t>
         </is>
       </c>
     </row>
@@ -22342,42 +22342,42 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.909 (0.442%)</t>
+          <t>0.909 (100.442%)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>0.903 (99.801%)</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.905 (0.155%)</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>0.905 (100.022%)</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
           <t>0.903 (-0.199%)</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.905 (-0.044%)</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>0.905 (0.022%)</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>0.903 (-0.177%)</t>
-        </is>
-      </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>0.905 (-0.044%)</t>
+          <t>0.905 (99.956%)</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0.905 (-0.011%)</t>
+          <t>0.905 (0.033%)</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.008 (0.83%)</t>
+          <t>1.811 (200.11%)</t>
         </is>
       </c>
     </row>
@@ -22573,7 +22573,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.001 (0.11%)</t>
+          <t>0.001 (0.10%)</t>
         </is>
       </c>
     </row>
@@ -22693,7 +22693,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.000 (0.05%)</t>
+          <t>0.000 (0.04%)</t>
         </is>
       </c>
     </row>
@@ -22993,7 +22993,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.003 (0.29%)</t>
+          <t>0.003 (0.28%)</t>
         </is>
       </c>
     </row>
@@ -23053,7 +23053,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.002 (0.17%)</t>
+          <t>0.002 (0.16%)</t>
         </is>
       </c>
     </row>
@@ -23113,7 +23113,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.001 (0.14%)</t>
+          <t>0.001 (0.11%)</t>
         </is>
       </c>
     </row>
@@ -23293,7 +23293,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>0.000 (0.03%)</t>
         </is>
       </c>
     </row>
@@ -23413,7 +23413,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.003 (0.30%)</t>
+          <t>0.003 (0.29%)</t>
         </is>
       </c>
     </row>
@@ -23653,7 +23653,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.001 (0.07%)</t>
+          <t>0.001 (0.06%)</t>
         </is>
       </c>
     </row>
@@ -23713,7 +23713,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.001 (0.05%)</t>
+          <t>0.000 (0.04%)</t>
         </is>
       </c>
     </row>
@@ -23893,7 +23893,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0.002 (0.22%)</t>
+          <t>0.002 (0.21%)</t>
         </is>
       </c>
     </row>
@@ -23953,7 +23953,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0.004 (0.37%)</t>
+          <t>0.004 (0.36%)</t>
         </is>
       </c>
     </row>
@@ -24073,7 +24073,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.002 (0.22%)</t>
+          <t>0.002 (0.19%)</t>
         </is>
       </c>
     </row>
@@ -24193,7 +24193,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.002 (0.20%)</t>
+          <t>0.002 (0.19%)</t>
         </is>
       </c>
     </row>
@@ -24373,7 +24373,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.008 (0.80%)</t>
+          <t>0.008 (0.79%)</t>
         </is>
       </c>
     </row>
